--- a/docs/pages/tools/appearance_table_maker/excel/i_アクセサリー(頭部上段).xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/i_アクセサリー(頭部上段).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F085C71-DB96-481C-975B-F57F3CA7C377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB44033-7D87-4706-A1AF-9F3D91CACBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,14 +600,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
